--- a/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/Invoices_Paid/Paid_Invoices_Register.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/06_PURCHASE_ORDERS_INVOICES/Invoices_Paid/Paid_Invoices_Register.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Register" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,8 +29,13 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -42,6 +46,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D3D3D3"/>
         <bgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
   </fills>
@@ -57,9 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,25 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +480,16 @@
           <t>Payment Method</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>GL Account</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,6 +521,16 @@
           <t>EFT</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -549,6 +562,16 @@
           <t>EFT</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +603,16 @@
           <t>Credit Card</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -611,6 +644,16 @@
           <t>EFT</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -642,6 +685,16 @@
           <t>EFT</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -673,6 +726,16 @@
           <t>EFT</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -704,6 +767,16 @@
           <t>EFT</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -735,6 +808,16 @@
           <t>EFT</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -766,6 +849,16 @@
           <t>EFT</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -795,6 +888,918 @@
       <c r="G11" t="inlineStr">
         <is>
           <t>Credit Card</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>7784</v>
+      </c>
+      <c r="D12" t="n">
+        <v>44301</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38944</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>27102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32944</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5928</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>27891</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11063</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8273</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10613</v>
+      </c>
+      <c r="D15" t="n">
+        <v>48382</v>
+      </c>
+      <c r="E15" t="n">
+        <v>42792</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>31629</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14636</v>
+      </c>
+      <c r="E16" t="n">
+        <v>44891</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>19777</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30568</v>
+      </c>
+      <c r="E17" t="n">
+        <v>35449</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>31504</v>
+      </c>
+      <c r="D18" t="n">
+        <v>49256</v>
+      </c>
+      <c r="E18" t="n">
+        <v>25675</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>33445</v>
+      </c>
+      <c r="D19" t="n">
+        <v>23671</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2689</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>31161</v>
+      </c>
+      <c r="D20" t="n">
+        <v>23362</v>
+      </c>
+      <c r="E20" t="n">
+        <v>34933</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>34608</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19422</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9122</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>18152</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5991</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14991</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>9854</v>
+      </c>
+      <c r="D23" t="n">
+        <v>43071</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5755</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>32187</v>
+      </c>
+      <c r="D24" t="n">
+        <v>45078</v>
+      </c>
+      <c r="E24" t="n">
+        <v>45735</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>16267</v>
+      </c>
+      <c r="D25" t="n">
+        <v>30160</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5902</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>37367</v>
+      </c>
+      <c r="D26" t="n">
+        <v>13921</v>
+      </c>
+      <c r="E26" t="n">
+        <v>16128</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>21515</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25804</v>
+      </c>
+      <c r="E27" t="n">
+        <v>28105</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>26996</v>
+      </c>
+      <c r="D28" t="n">
+        <v>21166</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2393</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>46512</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3404</v>
+      </c>
+      <c r="E29" t="n">
+        <v>29892</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>5300</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Subcontractors</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>13750</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24221</v>
+      </c>
+      <c r="E30" t="n">
+        <v>34685</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>5400</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>27615</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4595</v>
+      </c>
+      <c r="E31" t="n">
+        <v>9499</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5510</v>
+      </c>
+      <c r="D32" t="n">
+        <v>49197</v>
+      </c>
+      <c r="E32" t="n">
+        <v>30774</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>25027</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5431</v>
+      </c>
+      <c r="E33" t="n">
+        <v>17781</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>6700</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Services</t>
         </is>
       </c>
     </row>
